--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2475" yWindow="1575" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="items" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sp2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="items" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sp2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2475" yWindow="1575" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="items" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sp2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="items" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sp2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2475" yWindow="1575" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="items" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sp2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="items" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="b_hall" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sp2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -425,8 +426,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -492,10 +493,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -682,6 +683,16 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -689,6 +700,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="items" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="b_hall" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sp2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="sp3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -493,13 +493,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
     <col width="16.125" customWidth="1" min="1" max="1"/>
     <col width="7.625" customWidth="1" min="2" max="2"/>
@@ -693,6 +693,7 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -799,10 +800,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="H4:K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -810,19 +811,34 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>마음</t>
+          <t>밥</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>갑오징어</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>창고열쇠</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>연구일지</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>보안키</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>밥</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>갑오징어</t>
+          <t>마음</t>
         </is>
       </c>
     </row>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -493,13 +493,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
     <col width="16.125" customWidth="1" min="1" max="1"/>
     <col width="7.625" customWidth="1" min="2" max="2"/>
@@ -693,7 +693,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -800,7 +799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -811,32 +810,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>바닥</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>밥</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>갑오징어</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>창고열쇠</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>연구일지</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>보안키</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
+        <is>
+          <t>빛</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>마음</t>
         </is>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -436,41 +436,6 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>지도</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>손전등</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>창고열쇠</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>보안키</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>연구일지</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>오징어 맛살</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>똥</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>500원</t>
         </is>
       </c>
     </row>
@@ -493,10 +458,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -522,6 +487,11 @@
           <t>설명(안적어도됨)</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>배고픔 회복량</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -693,6 +663,40 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>보안실, 창고, 관리실 등에서 사용 가능</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>배고픔 20 회복</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -705,10 +709,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -763,6 +767,11 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>빵</t>
         </is>
       </c>
     </row>
@@ -801,7 +810,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2475" yWindow="1575" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="items" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sp2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="b_hall" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sp3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -423,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -435,41 +436,6 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>지도</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>손전등</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>창고열쇠</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>보안키</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>연구일지</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>오징어 맛살</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>똥</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>500원</t>
         </is>
       </c>
     </row>
@@ -492,10 +458,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -521,6 +487,11 @@
           <t>설명(안적어도됨)</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>배고픔 회복량</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -680,6 +651,49 @@
         <is>
           <t>매우 우람해</t>
         </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>보안실, 창고, 관리실 등에서 사용 가능</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>배고픔 20 회복</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -694,10 +708,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="H4:K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -705,19 +719,133 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>마음</t>
+          <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>밥</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>갑오징어</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>빛</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>갑오징어</t>
+          <t>마음</t>
         </is>
       </c>
     </row>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -696,7 +696,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -709,7 +708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -770,6 +769,11 @@
         </is>
       </c>
       <c r="B4" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>빵</t>
         </is>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -696,6 +696,7 @@
         <v>20</v>
       </c>
     </row>
+    <row r="16"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -708,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -769,11 +770,6 @@
         </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>빵</t>
         </is>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="items" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="b_hall" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="sp3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="b_bedroom" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -424,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -458,10 +459,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -696,7 +697,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -709,10 +709,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -770,6 +770,11 @@
         </is>
       </c>
       <c r="B4" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
@@ -849,4 +854,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ang</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>핫</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>둘</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>셋</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>넷</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="1755" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="27585" windowHeight="12420" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="items" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="b_hall" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="sp3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="b_bedroom" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <color theme="1"/>
+      <color rgb="ff000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
+      <color rgb="ff000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <color rgb="ff000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <color rgb="ff000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <color rgb="ff000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <color rgb="ff000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,23 +64,105 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left>
+        <color indexed="64"/>
+      </left>
+      <right>
+        <color indexed="64"/>
+      </right>
+      <top>
+        <color indexed="64"/>
+      </top>
+      <bottom>
+        <color indexed="64"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="12">
+    <dxf/>
+    <dxf/>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="ffaebfea"/>
+          <bgColor rgb="ffaebfea"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="ff94a5df"/>
+          <bgColor rgb="ff94a5df"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color rgb="ff6182d6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="ff6182d6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="ff6182d6"/>
+          <bgColor rgb="ff6182d6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" table="1" count="9">
+      <tableStyleElement type="wholeTable" size="1" dxfId="0"/>
+      <tableStyleElement type="headerRow" size="1" dxfId="5"/>
+      <tableStyleElement type="totalRow" size="1" dxfId="4"/>
+      <tableStyleElement type="firstColumn" size="1" dxfId="3"/>
+      <tableStyleElement type="lastColumn" size="1" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" size="1" dxfId="2"/>
+      <tableStyleElement type="secondColumnStripe" size="1" dxfId="1"/>
+    </tableStyle>
+    <tableStyle name="Light Style 1 - Accent 1" pivot="1" table="0" count="8">
+      <tableStyleElement type="wholeTable" size="1" dxfId="6"/>
+      <tableStyleElement type="headerRow" size="1" dxfId="11"/>
+      <tableStyleElement type="totalRow" size="1" dxfId="10"/>
+      <tableStyleElement type="firstColumn" size="1" dxfId="9"/>
+      <tableStyleElement type="lastColumn" size="1" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" size="1" dxfId="8"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -136,41 +235,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -413,34 +512,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C3" activeCellId="0" sqref="C3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>지도</t>
-        </is>
-      </c>
+      <c r="A1" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -448,409 +541,617 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A17" activeCellId="0" sqref="A17:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4" outlineLevelCol="0"/>
   <cols>
-    <col width="16.125" customWidth="1" min="1" max="1"/>
-    <col width="7.625" customWidth="1" min="2" max="2"/>
-    <col width="114.5" customWidth="1" min="3" max="3"/>
+    <col width="16.125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="7.625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="114.5" customWidth="1" style="2" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>지도를 보여줍니다(상호작용 가능)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>길을 밝혀줍니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>창고열쇠</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>보안키</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>보안실에서 사용 가능</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>연구일지</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>연구실에서 얻은 일지이다</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>오징어 맛살</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>달다</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>똥</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>푸짐하다</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>500원</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>500원이다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>가볍지만 무겁다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>밥</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>식었다</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>매우 우람해</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>카드키</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>보안실, 창고, 관리실 등에서 사용 가능</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>20</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>만화책</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>지구에서 유행하는 마블링 코믹스 시리즈 3권이다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H1" activeCellId="0" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>상자2</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>카드키</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B2" activeCellId="0" sqref="B2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>밥</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>갑오징어</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>빛</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>마음</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B11" activeCellId="0" sqref="B11:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>밥</t>
+          <t>카드키</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>갑오징어</t>
+          <t>만화책</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>지도</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>빛</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>마음</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>침대</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>지도</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>침대</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>만화책</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>침대</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>침대</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -521,7 +521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C3" activeCellId="0" sqref="C3:C3"/>
@@ -551,13 +551,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A17" activeCellId="0" sqref="A17:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4"/>
   <cols>
     <col width="16.125" customWidth="1" style="2" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="2" min="2" max="2"/>
@@ -804,7 +804,6 @@
         </is>
       </c>
     </row>
-    <row r="17"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -970,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B11" activeCellId="0" sqref="B11:B11"/>
@@ -984,21 +983,6 @@
           <t>바닥</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>지도</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1017,10 +1001,14 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1067,10 +1055,14 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>상자</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
           <t>만화책</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1131,10 +1123,14 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
+          <t>책상</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
           <t>카드키</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="27585" windowHeight="12420" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5655" yWindow="765" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,47 +11,36 @@
     <sheet name="b_hall" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="sp3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="b_bedroom" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="b_manageroom" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <name val="맑은 고딕"/>
-      <color rgb="ff000000"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="맑은 고딕"/>
-      <color rgb="ff000000"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
-      <name val="맑은 고딕"/>
-      <color rgb="ff000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <color rgb="ff000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <color rgb="ff000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <color rgb="ff000000"/>
-      <sz val="11"/>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,103 +53,230 @@
   </fills>
   <borders count="1">
     <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf/>
-    <dxf/>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="ffaebfea"/>
-          <bgColor rgb="ffaebfea"/>
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
-    <dxf/>
-    <dxf/>
-    <dxf/>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="ff94a5df"/>
-          <bgColor rgb="ff94a5df"/>
+          <fgColor rgb="FF94A5DF"/>
+          <bgColor rgb="FF94A5DF"/>
         </patternFill>
       </fill>
       <border>
         <top style="thin">
-          <color rgb="ff6182d6"/>
+          <color rgb="FF6182D6"/>
         </top>
         <bottom style="thin">
-          <color rgb="ff6182d6"/>
+          <color rgb="FF6182D6"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color rgb="FF6182D6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF6182D6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color rgb="FF6182D6"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF6182D6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="ff6182d6"/>
-          <bgColor rgb="ff6182d6"/>
+          <fgColor rgb="FFAEBFEA"/>
+          <bgColor rgb="FFAEBFEA"/>
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
-    <dxf/>
-    <dxf/>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFAEBFEA"/>
+          <bgColor rgb="FFAEBFEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thick">
+          <color rgb="FFFFFFFF"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thick">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD7DFF4"/>
+          <bgColor rgb="FFD7DFF4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" table="1" count="9">
-      <tableStyleElement type="wholeTable" size="1" dxfId="0"/>
-      <tableStyleElement type="headerRow" size="1" dxfId="5"/>
-      <tableStyleElement type="totalRow" size="1" dxfId="4"/>
-      <tableStyleElement type="firstColumn" size="1" dxfId="3"/>
-      <tableStyleElement type="lastColumn" size="1" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" size="1" dxfId="2"/>
-      <tableStyleElement type="secondColumnStripe" size="1" dxfId="1"/>
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstColumn" dxfId="10"/>
+      <tableStyleElement type="lastColumn" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" pivot="1" table="0" count="8">
-      <tableStyleElement type="wholeTable" size="1" dxfId="6"/>
-      <tableStyleElement type="headerRow" size="1" dxfId="11"/>
-      <tableStyleElement type="totalRow" size="1" dxfId="10"/>
-      <tableStyleElement type="firstColumn" size="1" dxfId="9"/>
-      <tableStyleElement type="lastColumn" size="1" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" size="1" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" size="1" dxfId="8"/>
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -235,41 +351,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -512,6 +628,8 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -523,17 +641,15 @@
   </sheetPr>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C3" activeCellId="0" sqref="C3:C3"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="n"/>
-    </row>
+    <row r="1"/>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -541,7 +657,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -551,13 +667,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A17" activeCellId="0" sqref="A17:A17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col width="16.125" customWidth="1" style="2" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="2" min="2" max="2"/>
@@ -565,248 +681,266 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>지도를 보여줍니다(상호작용 가능)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>길을 밝혀줍니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>창고열쇠</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>보안키</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>보안실에서 사용 가능</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>연구일지</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" t="n">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>연구실에서 얻은 일지이다</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>오징어 맛살</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>달다</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>똥</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" t="n">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>푸짐하다</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>500원</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" t="n">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>500원이다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>가볍지만 무겁다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>밥</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>식었다</t>
-        </is>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>배고픔 10 회복</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" t="n">
         <v>50</v>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>매우 우람해</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>카드키</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" t="n">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>보안실, 창고, 관리실 등에서 사용 가능</t>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>카드키 코드 : type40</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>소설책</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>지구에서 유행하는 마블링 코믹스 시리즈 3권이다.</t>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>지구에서 유행하는 개그소설이다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>나중에 필요할 것 같다</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -818,91 +952,91 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H1" activeCellId="0" sqref="H1:H1048576"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>상자2</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>카드키</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -910,7 +1044,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -922,36 +1056,36 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B2" activeCellId="0" sqref="B2:B2"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>밥</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -959,7 +1093,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -971,11 +1105,11 @@
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B11" activeCellId="0" sqref="B11:B11"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1148,6 +1282,67 @@
     </row>
   </sheetData>
   <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -639,7 +639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -649,7 +649,7 @@
   <sheetData>
     <row r="1"/>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -667,13 +667,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
     <col width="16.125" customWidth="1" style="2" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="2" min="2" max="2"/>
@@ -681,164 +681,164 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>지도를 보여줍니다(상호작용 가능)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>길을 밝혀줍니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>창고열쇠</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>보안키</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>보안실에서 사용 가능</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>연구일지</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>연구실에서 얻은 일지이다</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>오징어 맛살</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>달다</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>똥</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>푸짐하다</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>500원</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>500원이다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>가볍지만 무겁다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>밥</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -851,37 +851,37 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>매우 우람해</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>카드키</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -891,20 +891,20 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -914,7 +914,7 @@
           <t>소설책</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -929,7 +929,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -938,6 +938,7 @@
         </is>
       </c>
     </row>
+    <row r="18"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -950,7 +951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -959,84 +960,56 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -1063,29 +1036,29 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>밥</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1292,7 +1265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -1317,29 +1290,13 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -639,7 +639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -649,7 +649,7 @@
   <sheetData>
     <row r="1"/>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -667,13 +667,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col width="16.125" customWidth="1" style="2" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="2" min="2" max="2"/>
@@ -681,164 +681,164 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>지도를 보여줍니다(상호작용 가능)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>길을 밝혀줍니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>창고열쇠</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>보안키</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>보안실에서 사용 가능</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>연구일지</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" t="n">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>연구실에서 얻은 일지이다</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>오징어 맛살</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>달다</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>똥</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" t="n">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>푸짐하다</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>500원</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" t="n">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>500원이다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>가볍지만 무겁다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>밥</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -851,37 +851,37 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" t="n">
         <v>50</v>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>매우 우람해</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>카드키</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" t="n">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -891,20 +891,20 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" t="n">
         <v>20</v>
       </c>
     </row>
@@ -914,7 +914,7 @@
           <t>소설책</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -929,7 +929,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" t="n">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -938,7 +938,6 @@
         </is>
       </c>
     </row>
-    <row r="18"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -951,7 +950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -960,56 +959,84 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="n"/>
-      <c r="E3" s="1" t="n"/>
-      <c r="F3" s="1" t="n"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -1036,29 +1063,29 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>밥</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1265,7 +1292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -1290,13 +1317,29 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="4" t="n"/>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5655" yWindow="765" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5655" yWindow="765" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -639,7 +639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -649,7 +649,7 @@
   <sheetData>
     <row r="1"/>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -667,9 +667,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -681,164 +681,164 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>지도를 보여줍니다(상호작용 가능)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>길을 밝혀줍니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>창고열쇠</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>보안키</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>보안실에서 사용 가능</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>연구일지</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>연구실에서 얻은 일지이다</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>오징어 맛살</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>달다</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>똥</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>푸짐하다</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>500원</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>500원이다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>가볍지만 무겁다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>밥</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -851,37 +851,37 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>매우 우람해</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>카드키</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -891,20 +891,20 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -914,7 +914,7 @@
           <t>소설책</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -929,7 +929,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -938,6 +938,7 @@
         </is>
       </c>
     </row>
+    <row r="18"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -950,93 +951,84 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
+      <c r="B4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -1054,38 +1046,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>밥</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>갑오징어</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5655" yWindow="765" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5850" yWindow="975" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="sp3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="b_bedroom" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="b_manageroom" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="b_warehouse" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -639,7 +640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -649,7 +650,7 @@
   <sheetData>
     <row r="1"/>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -667,13 +668,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
     <col width="16.125" customWidth="1" style="2" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="2" min="2" max="2"/>
@@ -681,164 +682,164 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>지도를 보여줍니다(상호작용 가능)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>길을 밝혀줍니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>창고열쇠</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>보안키</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>보안실에서 사용 가능</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>연구일지</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>연구실에서 얻은 일지이다</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>오징어 맛살</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>달다</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>똥</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>푸짐하다</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>500원</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>500원이다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>가볍지만 무겁다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>밥</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -851,37 +852,37 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>매우 우람해</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>카드키</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -891,30 +892,30 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>소설책</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+          <t>만화책</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -929,7 +930,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -938,6 +939,52 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>작은 드라이버다</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>망치</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>조금 가벼운 것 같다</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>절연 테이프</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>많이 남아있는 것 같다</t>
+        </is>
+      </c>
+    </row>
+    <row r="21"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -950,7 +997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -959,79 +1006,75 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
+      <c r="B4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -1049,28 +1092,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1088,7 +1131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -1174,14 +1217,10 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>상자</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
           <t>만화책</t>
         </is>
       </c>
+      <c r="B11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1242,14 +1281,10 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>책상</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
           <t>카드키</t>
         </is>
       </c>
+      <c r="B20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1330,4 +1365,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>망치</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>손전등</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>상자7</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5655" yWindow="765" windowWidth="21600" windowHeight="11835" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="items" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="b_hall" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sp3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="b_bedroom" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="b_manageroom" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="items" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="b_hall" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sp3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="b_bedroom" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="b_manageroom" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -639,7 +639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -649,7 +649,7 @@
   <sheetData>
     <row r="1"/>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -667,13 +667,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col width="16.125" customWidth="1" style="2" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="2" min="2" max="2"/>
@@ -681,164 +681,164 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>지도를 보여줍니다(상호작용 가능)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>길을 밝혀줍니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>창고열쇠</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>보안키</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>보안실에서 사용 가능</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>연구일지</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" t="n">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>연구실에서 얻은 일지이다</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>오징어 맛살</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>달다</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>똥</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" t="n">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>푸짐하다</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>500원</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" t="n">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>500원이다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>가볍지만 무겁다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>밥</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -851,37 +851,37 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" t="n">
         <v>50</v>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>매우 우람해</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>카드키</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" t="n">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -891,20 +891,20 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" t="n">
         <v>20</v>
       </c>
     </row>
@@ -914,7 +914,7 @@
           <t>소설책</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -929,7 +929,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" t="n">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -938,7 +938,6 @@
         </is>
       </c>
     </row>
-    <row r="18"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -951,7 +950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
@@ -960,56 +959,84 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="n"/>
-      <c r="E3" s="1" t="n"/>
-      <c r="F3" s="1" t="n"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -1036,29 +1063,29 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>밥</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1265,7 +1292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -1290,13 +1317,29 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="4" t="n"/>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -1,47 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5850" yWindow="975" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="27405" windowHeight="12390" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="items" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="b_hall" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sp3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="b_bedroom" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="b_manageroom" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="b_warehouse" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="items" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="b_hall" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sp3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="b_bedroom" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="b_manageroom" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="b_warehouse" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="production_facility" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
+      <color rgb="ff000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="FF000000"/>
+      <color rgb="ff000000"/>
       <sz val="11"/>
     </font>
     <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <color rgb="ff000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <color rgb="ff000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <color rgb="ff000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <color rgb="ff000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,230 +67,112 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left>
+        <color indexed="64"/>
+      </left>
+      <right>
+        <color indexed="64"/>
+      </right>
+      <top>
+        <color indexed="64"/>
+      </top>
+      <bottom>
+        <color indexed="64"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="general" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="12">
+    <dxf/>
+    <dxf/>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF6182D6"/>
-          <bgColor rgb="FF6182D6"/>
+          <fgColor rgb="ffaebfea"/>
+          <bgColor rgb="ffaebfea"/>
         </patternFill>
       </fill>
     </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF94A5DF"/>
-          <bgColor rgb="FF94A5DF"/>
+          <fgColor rgb="ff94a5df"/>
+          <bgColor rgb="ff94a5df"/>
         </patternFill>
       </fill>
       <border>
         <top style="thin">
-          <color rgb="FF6182D6"/>
+          <color rgb="ff6182d6"/>
         </top>
         <bottom style="thin">
-          <color rgb="FF6182D6"/>
+          <color rgb="ff6182d6"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color rgb="FF6182D6"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <border>
-        <bottom style="medium">
-          <color rgb="FF6182D6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="medium">
-          <color rgb="FF6182D6"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF6182D6"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFAEBFEA"/>
-          <bgColor rgb="FFAEBFEA"/>
+          <fgColor rgb="ff6182d6"/>
+          <bgColor rgb="ff6182d6"/>
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFAEBFEA"/>
-          <bgColor rgb="FFAEBFEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6182D6"/>
-          <bgColor rgb="FF6182D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6182D6"/>
-          <bgColor rgb="FF6182D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6182D6"/>
-          <bgColor rgb="FF6182D6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thick">
-          <color rgb="FFFFFFFF"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6182D6"/>
-          <bgColor rgb="FF6182D6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thick">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD7DFF4"/>
-          <bgColor rgb="FFD7DFF4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFFFF"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFFFF"/>
-        </horizontal>
-      </border>
-    </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstColumn" dxfId="10"/>
-      <tableStyleElement type="lastColumn" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" table="1" count="9">
+      <tableStyleElement type="wholeTable" size="1" dxfId="0"/>
+      <tableStyleElement type="headerRow" size="1" dxfId="5"/>
+      <tableStyleElement type="totalRow" size="1" dxfId="4"/>
+      <tableStyleElement type="firstColumn" size="1" dxfId="3"/>
+      <tableStyleElement type="lastColumn" size="1" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" size="1" dxfId="2"/>
+      <tableStyleElement type="secondColumnStripe" size="1" dxfId="1"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    <tableStyle name="Light Style 1 - Accent 1" pivot="1" table="0" count="8">
+      <tableStyleElement type="wholeTable" size="1" dxfId="6"/>
+      <tableStyleElement type="headerRow" size="1" dxfId="11"/>
+      <tableStyleElement type="totalRow" size="1" dxfId="10"/>
+      <tableStyleElement type="firstColumn" size="1" dxfId="9"/>
+      <tableStyleElement type="lastColumn" size="1" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" size="1" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -352,41 +247,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -629,8 +524,6 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -642,15 +535,17 @@
   </sheetPr>
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C3" activeCellId="0" sqref="C3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="4" t="n"/>
+    </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -658,7 +553,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
@@ -670,315 +565,315 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A17" activeCellId="0" sqref="A17:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.4"/>
   <cols>
-    <col width="16.125" customWidth="1" style="2" min="1" max="1"/>
-    <col width="7.625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="114.5" customWidth="1" style="2" min="3" max="3"/>
+    <col width="16.125" customWidth="1" style="4" min="1" max="1"/>
+    <col width="7.625" customWidth="1" style="4" min="2" max="2"/>
+    <col width="114.5" customWidth="1" style="4" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>지도를 보여줍니다(상호작용 가능)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>길을 밝혀줍니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>창고열쇠</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="4" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>보안키</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>보안실에서 사용 가능</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>연구일지</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>연구실에서 얻은 일지이다</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>오징어 맛살</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>달다</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>똥</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>푸짐하다</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>500원</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>500원이다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>가볍지만 무겁다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>밥</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>배고픔 10 회복</t>
         </is>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="5" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>매우 우람해</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>카드키</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>카드키 코드 : type40</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="4" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>만화책</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>지구에서 유행하는 개그소설이다.</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>전선</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>나중에 필요할 것 같다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -986,7 +881,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
@@ -998,86 +893,87 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C4" activeCellId="0" sqref="C4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>상자2</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
+      <c r="C4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -1085,7 +981,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
@@ -1097,26 +993,28 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C1" activeCellId="0" sqref="C1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
+      <c r="B1" s="4" t="n"/>
+      <c r="C1" s="4" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1124,7 +1022,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
@@ -1136,335 +1034,362 @@
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B11" activeCellId="0" sqref="B11:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>침대</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>서랍</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>책상</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>상자</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>침대</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>서랍</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>책상</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>상자</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>만화책</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>침대</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>서랍</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>책상</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>상자</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>침대</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>서랍</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>책상</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>카드키</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>상자</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.511388897895813" footer="0.511388897895813"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E37" activeCellId="0" sqref="E37:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>전선</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.699999988079071" right="0.699999988079071" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet7">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C3" activeCellId="0" sqref="C3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>상자2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>상자6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>상자7</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.699999988079071" right="0.699999988079071" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet8">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.511805534362793" footer="0.511805534362793"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5850" yWindow="975" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5850" yWindow="975" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="b_bedroom" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="b_manageroom" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="b_warehouse" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="a_power" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -640,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -650,7 +651,7 @@
   <sheetData>
     <row r="1"/>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -668,13 +669,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col width="16.125" customWidth="1" style="2" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="2" min="2" max="2"/>
@@ -682,164 +683,164 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>지도를 보여줍니다(상호작용 가능)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>길을 밝혀줍니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>창고열쇠</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>보안키</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>보안실에서 사용 가능</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>연구일지</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" t="n">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>연구실에서 얻은 일지이다</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>오징어 맛살</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>달다</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>똥</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" t="n">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>푸짐하다</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>500원</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" t="n">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>500원이다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>가볍지만 무겁다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>밥</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -852,37 +853,37 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" t="n">
         <v>50</v>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>매우 우람해</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>카드키</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" t="n">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -892,20 +893,20 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" t="n">
         <v>20</v>
       </c>
     </row>
@@ -915,7 +916,7 @@
           <t>만화책</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -930,7 +931,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" t="n">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -940,51 +941,50 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" t="n">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" t="n">
         <v>50</v>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" t="n">
         <v>10</v>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
       </c>
     </row>
-    <row r="21"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -997,7 +997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1006,75 +1006,79 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -1092,7 +1096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1101,19 +1105,19 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1131,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -1217,10 +1221,14 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>상자</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
           <t>만화책</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1281,10 +1289,14 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
+          <t>책상</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
           <t>카드키</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1373,7 +1385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -1398,10 +1410,14 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1413,10 +1429,14 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>상자4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1428,15 +1448,46 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>상자6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>상자7</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
         </is>
       </c>
     </row>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -641,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -651,7 +651,7 @@
   <sheetData>
     <row r="1"/>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -669,13 +669,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
     <col width="16.125" customWidth="1" style="2" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="2" min="2" max="2"/>
@@ -683,164 +683,164 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>지도를 보여줍니다(상호작용 가능)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>길을 밝혀줍니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>창고열쇠</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>보안키</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>보안실에서 사용 가능</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>연구일지</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>연구실에서 얻은 일지이다</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>오징어 맛살</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>달다</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>똥</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>푸짐하다</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>500원</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>500원이다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>가볍지만 무겁다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>밥</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -853,37 +853,37 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>매우 우람해</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>카드키</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -893,20 +893,20 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -916,7 +916,7 @@
           <t>만화책</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -931,7 +931,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -941,50 +941,51 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
       </c>
     </row>
+    <row r="21"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -997,7 +998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1006,79 +1007,75 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
+      <c r="B4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -1096,7 +1093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1105,19 +1102,19 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1135,7 +1132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -1289,14 +1286,10 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>책상</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
           <t>카드키</t>
         </is>
       </c>
+      <c r="B20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5850" yWindow="975" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2520" yWindow="1020" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -641,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -651,7 +651,7 @@
   <sheetData>
     <row r="1"/>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -669,13 +669,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col width="16.125" customWidth="1" style="2" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="2" min="2" max="2"/>
@@ -683,164 +683,164 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>지도를 보여줍니다(상호작용 가능)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>길을 밝혀줍니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>창고열쇠</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>보안키</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>보안실에서 사용 가능</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>연구일지</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" t="n">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>연구실에서 얻은 일지이다</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>오징어 맛살</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>달다</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>똥</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" t="n">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>푸짐하다</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>500원</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" t="n">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>500원이다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>가볍지만 무겁다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>밥</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -853,60 +853,60 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" t="n">
         <v>50</v>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>매우 우람해</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>카드키</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" t="n">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>카드키 코드 : type40</t>
+          <t>카드키 아이디 : type40</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" t="n">
         <v>20</v>
       </c>
     </row>
@@ -916,7 +916,7 @@
           <t>만화책</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -931,7 +931,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" t="n">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -941,51 +941,50 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" t="n">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" t="n">
         <v>50</v>
       </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" t="n">
         <v>10</v>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
       </c>
     </row>
-    <row r="21"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -998,7 +997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1007,75 +1006,79 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -1093,7 +1096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1102,19 +1105,19 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1132,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -1286,10 +1289,14 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
+          <t>책상</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
           <t>카드키</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1471,7 +1478,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2520" yWindow="1020" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2520" yWindow="1020" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -641,15 +641,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
@@ -671,7 +687,7 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2520" yWindow="1020" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2520" yWindow="1020" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="2" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,7 +13,9 @@
     <sheet name="b_bedroom" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="b_manageroom" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="b_warehouse" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="a_power" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="b_security" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="b_production" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="a_power" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -641,9 +643,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -667,7 +669,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -675,6 +677,33 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -685,13 +714,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
     <col width="16.125" customWidth="1" style="2" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="2" min="2" max="2"/>
@@ -699,164 +728,164 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>지도를 보여줍니다(상호작용 가능)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>길을 밝혀줍니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>창고열쇠</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>보안키</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>보안실에서 사용 가능</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>연구일지</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>연구실에서 얻은 일지이다</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>오징어 맛살</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>달다</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>똥</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>푸짐하다</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>500원</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>500원이다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>가볍지만 무겁다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>밥</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -869,37 +898,37 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>매우 우람해</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>카드키</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -909,20 +938,20 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
@@ -932,7 +961,7 @@
           <t>만화책</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -947,7 +976,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -957,50 +986,51 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
       </c>
     </row>
+    <row r="21"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1022,53 +1052,53 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>상자2</t>
         </is>
@@ -1080,21 +1110,21 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -1112,28 +1142,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1151,7 +1181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -1165,11 +1195,21 @@
           <t>바닥</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>카드키</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1535,7 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -1509,6 +1549,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2520" yWindow="1020" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="2" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11790" yWindow="1935" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -69,7 +69,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -81,6 +81,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -643,7 +644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -669,7 +670,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -714,183 +715,183 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col width="16.125" customWidth="1" style="2" min="1" max="1"/>
-    <col width="7.625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="114.5" customWidth="1" style="2" min="3" max="3"/>
+    <col width="16.125" customWidth="1" style="5" min="1" max="1"/>
+    <col width="7.625" customWidth="1" style="5" min="2" max="2"/>
+    <col width="114.5" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>달 기지의 시설들을 볼 수 있다(우클릭으로 보기)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>손전등</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>지도를 보여줍니다(상호작용 가능)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>손전등</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>어두운 곳에서 사용할 수 있을 것 같다</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>어두운 곳에서 사용할 수 있을 것 같다 (우클릭으로 보기)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>배고픔 20 회복</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>만화책</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>지구에서 유행하는 만화모음집</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>길을 밝혀줍니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>창고열쇠</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>길어보이는 전선이다</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>드라이버</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>작은 드라이버다</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>망치</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>조금 가벼운 것 같다</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>절연 테이프</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>보안키</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>보안실에서 사용 가능</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>연구일지</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>연구실에서 얻은 일지이다</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>오징어 맛살</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>달다</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>똥</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>푸짐하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>500원</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>500원이다</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>마음</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>가볍지만 무겁다</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>밥</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>배고픔 10 회복</t>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>많이 남아있는 것 같다</t>
         </is>
       </c>
       <c r="D11" s="1" t="n">
@@ -898,139 +899,113 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>갑오징어</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>매우 우람해</t>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>클립</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>구부러져 있는 클립이다</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>찢어진 종이</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>찢겨진 부분이 있는 종이다</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>연구노트</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>30</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>연구실에서 발견한 노트이다</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>연구실에서 발견한 USB이다</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>건전지</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>카드키 아이디 : type40</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>배고픔 20 회복</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>지구에서 유행하는 개그소설이다.</t>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>유용하게 쓰일 것 같다</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>나중에 필요할 것 같다</t>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>일자 드라이버</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>작은 일자 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>작은 드라이버다</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>망치</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>조금 가벼운 것 같다</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>절연 테이프</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>많이 남아있는 것 같다</t>
-        </is>
-      </c>
-    </row>
-    <row r="21"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>연료통을 들고 있다</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1052,53 +1027,53 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>상자2</t>
         </is>
@@ -1110,21 +1085,21 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -1142,28 +1117,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1181,7 +1156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -1195,21 +1170,11 @@
           <t>바닥</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>카드키</t>
         </is>
       </c>
     </row>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11790" yWindow="1935" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5880" yWindow="1995" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="4" activeTab="10" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="b_security" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="b_production" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="a_power" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="a_security1" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -709,6 +710,33 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet2">
@@ -717,7 +745,7 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2520" yWindow="1020" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="27405" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,36 +13,50 @@
     <sheet name="b_bedroom" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="b_manageroom" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="b_warehouse" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="a_power" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="production_facility" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="reference_room" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="computer" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
+      <color rgb="ff000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="FF000000"/>
+      <color rgb="ff000000"/>
       <sz val="11"/>
     </font>
     <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <color rgb="ff000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <color rgb="ff000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <color rgb="ff000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <color rgb="ff000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,230 +69,115 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left>
+        <color indexed="64"/>
+      </left>
+      <right>
+        <color indexed="64"/>
+      </right>
+      <top>
+        <color indexed="64"/>
+      </top>
+      <bottom>
+        <color indexed="64"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="general" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="general" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="12">
+    <dxf/>
+    <dxf/>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF6182D6"/>
-          <bgColor rgb="FF6182D6"/>
+          <fgColor rgb="ffaebfea"/>
+          <bgColor rgb="ffaebfea"/>
         </patternFill>
       </fill>
     </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
+    <dxf/>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF94A5DF"/>
-          <bgColor rgb="FF94A5DF"/>
+          <fgColor rgb="ff94a5df"/>
+          <bgColor rgb="ff94a5df"/>
         </patternFill>
       </fill>
       <border>
         <top style="thin">
-          <color rgb="FF6182D6"/>
+          <color rgb="ff6182d6"/>
         </top>
         <bottom style="thin">
-          <color rgb="FF6182D6"/>
+          <color rgb="ff6182d6"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color rgb="FF6182D6"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <border>
-        <bottom style="medium">
-          <color rgb="FF6182D6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="medium">
-          <color rgb="FF6182D6"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF6182D6"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFAEBFEA"/>
-          <bgColor rgb="FFAEBFEA"/>
+          <fgColor rgb="ff6182d6"/>
+          <bgColor rgb="ff6182d6"/>
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFAEBFEA"/>
-          <bgColor rgb="FFAEBFEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6182D6"/>
-          <bgColor rgb="FF6182D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6182D6"/>
-          <bgColor rgb="FF6182D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6182D6"/>
-          <bgColor rgb="FF6182D6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thick">
-          <color rgb="FFFFFFFF"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6182D6"/>
-          <bgColor rgb="FF6182D6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thick">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD7DFF4"/>
-          <bgColor rgb="FFD7DFF4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFFFF"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFFFF"/>
-        </horizontal>
-      </border>
-    </dxf>
+    <dxf/>
+    <dxf/>
+    <dxf/>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstColumn" dxfId="10"/>
-      <tableStyleElement type="lastColumn" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" table="1" count="9">
+      <tableStyleElement type="wholeTable" size="1" dxfId="0"/>
+      <tableStyleElement type="headerRow" size="1" dxfId="5"/>
+      <tableStyleElement type="totalRow" size="1" dxfId="4"/>
+      <tableStyleElement type="firstColumn" size="1" dxfId="3"/>
+      <tableStyleElement type="lastColumn" size="1" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" size="1" dxfId="2"/>
+      <tableStyleElement type="secondColumnStripe" size="1" dxfId="1"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    <tableStyle name="Light Style 1 - Accent 1" pivot="1" table="0" count="8">
+      <tableStyleElement type="wholeTable" size="1" dxfId="6"/>
+      <tableStyleElement type="headerRow" size="1" dxfId="11"/>
+      <tableStyleElement type="totalRow" size="1" dxfId="10"/>
+      <tableStyleElement type="firstColumn" size="1" dxfId="9"/>
+      <tableStyleElement type="lastColumn" size="1" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" size="1" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -353,41 +252,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -630,8 +529,6 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -641,33 +538,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C3" activeCellId="0" sqref="C3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
+      <c r="A1" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -675,7 +558,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet10">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4"/>
+  <sheetData/>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.511805534362793" footer="0.511805534362793"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
@@ -687,315 +589,315 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A17" activeCellId="0" sqref="A17:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.4"/>
   <cols>
-    <col width="16.125" customWidth="1" style="2" min="1" max="1"/>
-    <col width="7.625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="114.5" customWidth="1" style="2" min="3" max="3"/>
+    <col width="16.125" customWidth="1" style="5" min="1" max="1"/>
+    <col width="7.625" customWidth="1" style="5" min="2" max="2"/>
+    <col width="114.5" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>지도를 보여줍니다(상호작용 가능)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>길을 밝혀줍니다.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>창고열쇠</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="5" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>보안키</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>보안실에서 사용 가능</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>연구일지</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>연구실에서 얻은 일지이다</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>오징어 맛살</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>달다</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>똥</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>푸짐하다</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>500원</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>500원이다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>가볍지만 무겁다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>밥</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>배고픔 10 회복</t>
         </is>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="6" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>갑오징어</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>매우 우람해</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>카드키</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>카드키 아이디 : type40</t>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>카드키 코드 : type40</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="5" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>만화책</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>지구에서 유행하는 개그소설이다.</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>전선</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>나중에 필요할 것 같다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -1003,7 +905,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
@@ -1015,86 +917,87 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C4" activeCellId="0" sqref="C4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>상자2</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
+      <c r="C4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -1102,7 +1005,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
@@ -1114,26 +1017,28 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C1" activeCellId="0" sqref="C1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
+      <c r="B1" s="5" t="n"/>
+      <c r="C1" s="5" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1141,7 +1046,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
@@ -1153,362 +1058,381 @@
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B11" activeCellId="0" sqref="B11:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>침대</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>서랍</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>책상</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>상자</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>침대</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>서랍</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>책상</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>상자</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>만화책</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>침대</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>서랍</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>책상</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>상자</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>침대</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>서랍</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>책상</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>카드키</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>상자</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" s="6" t="inlineStr">
         <is>
           <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.511388897895813" footer="0.511388897895813"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E37" activeCellId="0" sqref="E37:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>전선</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet7">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C3" activeCellId="0" sqref="C3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>상자2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>상자6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>상자7</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet9">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.00390625" defaultRowHeight="16.4"/>
+  <sheetData/>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5116666555404663" footer="0.5116666555404663"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="0" fitToWidth="0" firstPageNumber="1" useFirstPageNumber="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5880" yWindow="1995" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="4" activeTab="10" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5880" yWindow="1995" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -718,7 +718,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -745,8 +745,8 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -829,7 +829,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>어두운 곳에서 사용할 수 있을 것 같다 (우클릭으로 보기)</t>
+          <t>카드키이다 (우클릭으로 보기)</t>
         </is>
       </c>
     </row>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5880" yWindow="1995" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5880" yWindow="1995" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="6" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="b_production" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="a_power" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="a_security1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="reference_room" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="computer" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -737,6 +739,43 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet2">
@@ -745,7 +784,7 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5850" yWindow="975" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2520" yWindow="1020" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="b_bedroom" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="b_manageroom" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="b_warehouse" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="a_power" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -671,7 +672,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -887,7 +888,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>카드키 코드 : type40</t>
+          <t>카드키 아이디 : type40</t>
         </is>
       </c>
     </row>
@@ -1467,4 +1468,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5880" yWindow="1995" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="6" activeTab="12" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3300" yWindow="1665" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="9" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="a_security1" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="reference_room" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="computer" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="a_hall" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="a_security2" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="a_system" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -691,9 +694,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -705,6 +708,9 @@
           <t>바닥</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -752,7 +758,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
@@ -766,13 +780,127 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>집중 탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>일자 드라이버</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3300" yWindow="1665" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="9" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3300" yWindow="1665" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="9" activeTab="16" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="a_hall" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="a_security2" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="a_system" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="lab" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -696,7 +697,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -895,6 +896,78 @@
       <c r="A1" s="4" t="inlineStr">
         <is>
           <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>책장</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>연구노트</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>현미경</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>USB</t>
         </is>
       </c>
     </row>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3300" yWindow="1665" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="9" activeTab="16" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6030" yWindow="2355" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="11" activeTab="15" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="a_security2" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="a_system" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="lab" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="a_communication" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -886,7 +887,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -913,7 +914,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
@@ -968,6 +969,33 @@
       <c r="B6" s="1" t="inlineStr">
         <is>
           <t>USB</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
         </is>
       </c>
     </row>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3300" yWindow="1665" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="9" activeTab="16" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="items" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="b_hall" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sp3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="b_bedroom" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="b_manageroom" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="b_warehouse" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="b_security" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="b_production" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="a_power" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="a_security1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="reference_room" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="computer" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="a_hall" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="a_security2" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="a_system" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="lab" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="items" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="b_hall" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sp3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="b_bedroom" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="b_manageroom" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="b_warehouse" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="b_security" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="b_production" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="a_power" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="a_security1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="reference_room" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="computer" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="a_hall" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="a_security2" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="a_system" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lab" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -652,7 +652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -678,7 +678,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -1011,7 +1011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1025,34 +1025,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1062,27 +1062,27 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>어두운 곳에서 사용할 수 있을 것 같다</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
           <t>카드키</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1102,15 +1102,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
@@ -1122,7 +1122,7 @@
           <t>만화책</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1137,7 +1137,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1147,45 +1147,45 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -1195,113 +1195,114 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>클립</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>구부러져 있는 클립이다</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>찢어진 종이</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>찢겨진 부분이 있는 종이다</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>연구실에서 발견한 노트이다</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>연구실에서 발견한 USB이다</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>건전지</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>유용하게 쓰일 것 같다</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>일자 드라이버</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>작은 일자 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>연료통</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>연료통을 들고 있다</t>
         </is>
       </c>
     </row>
+    <row r="19"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1314,7 +1315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1323,79 +1324,75 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
+      <c r="B4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -1413,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1422,19 +1419,19 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,27 +3,29 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6030" yWindow="2355" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="11" activeTab="15" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6030" yWindow="2355" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="2" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="items" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="b_hall" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sp3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="sp3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="b_hall" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="b_bedroom" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="b_manageroom" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="b_warehouse" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="b_security" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="b_production" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="a_power" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="a_security1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="reference_room" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="computer" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="a_hall" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="a_security2" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="a_system" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="lab" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="a_communication" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="b_long" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="a_power" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="a_security1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="reference_room" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="computer" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="a_hall" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="a_security2" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="a_system" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="lab" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="a_communication" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="a_long" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -696,6 +698,33 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -720,7 +749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -747,7 +776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -774,7 +803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -800,7 +829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -853,7 +882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -879,7 +908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -887,7 +916,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -906,7 +935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -978,7 +1007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1017,7 +1046,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
     <col width="16.125" customWidth="1" style="5" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="5" min="2" max="2"/>
@@ -1309,13 +1338,79 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet4">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>빛</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>마음</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet3">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1372,10 +1467,14 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1404,16 +1503,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1428,34 +1527,245 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>빛</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>마음</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>침대</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>지도</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>침대</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>만화책</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>침대</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>침대</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1467,223 +1777,64 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>바닥</t>
+          <t>상자1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>침대</t>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>지도</t>
+          <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>책상</t>
+          <t>상자4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>망치</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>상자</t>
+          <t>상자5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>바닥</t>
+          <t>상자6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>손전등</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
+          <t>상자7</t>
         </is>
       </c>
     </row>
@@ -1693,88 +1844,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>상자4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>망치</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>상자6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>손전등</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>상자7</t>
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
         </is>
       </c>
     </row>
@@ -1782,57 +1895,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6030" yWindow="2355" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="2" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6030" yWindow="2355" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="16" activeTab="22" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="lab" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="a_communication" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="a_long" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="c_communicate" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="c_warehouse" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="c_hall" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -654,7 +657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -680,7 +683,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -698,9 +701,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -709,7 +712,7 @@
     <row r="1">
       <c r="A1" s="4" t="inlineStr">
         <is>
-          <t>전선</t>
+          <t>바닥</t>
         </is>
       </c>
     </row>
@@ -1040,13 +1043,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col width="16.125" customWidth="1" style="5" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="5" min="2" max="2"/>
@@ -1054,291 +1057,876 @@
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>아이템 이름</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>고유 값</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>설명(안적어도됨)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>배고픔 회복량</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>지도</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>달 기지의 시설들을 볼 수 있다(우클릭으로 보기)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>손전등</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>어두운 곳에서 사용할 수 있을 것 같다</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>카드키이다 (우클릭으로 보기)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>배고픔 20 회복</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>만화책</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>지구에서 유행하는 만화모음집</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>길어보이는 전선이다</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>드라이버</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>작은 드라이버다</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>망치</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>조금 가벼운 것 같다</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>절연 테이프</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>많이 남아있는 것 같다</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>클립</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>구부러져 있는 클립이다</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>찢어진 종이</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>찢겨진 부분이 있는 종이다</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>연구노트</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>30</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>연구실에서 발견한 노트이다</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>연구실에서 발견한 USB이다</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>건전지</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>유용하게 쓰일 것 같다</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>일자 드라이버</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>작은 일자 드라이버다</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>연료통을 들고 있다</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet4">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>빛</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>마음</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet3">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>아이템 이름</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>고유 값</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>설명(안적어도됨)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>배고픔 회복량</t>
+          <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>지도</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>달 기지의 시설들을 볼 수 있다(우클릭으로 보기)</t>
+          <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>손전등</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>어두운 곳에서 사용할 수 있을 것 같다</t>
+          <t>침대</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>2</v>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>지도</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>카드키이다 (우클릭으로 보기)</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>배고픔 20 회복</t>
+          <t>상자</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>지구에서 유행하는 만화모음집</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>길어보이는 전선이다</t>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>침대</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>작은 드라이버다</t>
+          <t>서랍</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>망치</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>조금 가벼운 것 같다</t>
+          <t>책상</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>절연 테이프</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>많이 남아있는 것 같다</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>10</v>
+          <t>상자</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>만화책</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>클립</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>구부러져 있는 클립이다</t>
+          <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>찢어진 종이</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>찢겨진 부분이 있는 종이다</t>
+          <t>침대</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>연구노트</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>연구실에서 발견한 노트이다</t>
+          <t>서랍</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>USB</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>연구실에서 발견한 USB이다</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>20</v>
+          <t>책상</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>건전지</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>유용하게 쓰일 것 같다</t>
+          <t>상자</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>일자 드라이버</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>작은 일자 드라이버다</t>
+          <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>연료통</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>연료통을 들고 있다</t>
-        </is>
-      </c>
-    </row>
-    <row r="19"/>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+          <t>침대</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>망치</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>상자6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>손전등</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>상자7</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1361,347 +1949,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>빛</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>마음</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>지도</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -1710,40 +1970,6 @@
       <c r="A1" s="4" t="inlineStr">
         <is>
           <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
         </is>
       </c>
     </row>
@@ -1751,148 +1977,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>상자4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>망치</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>상자6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>손전등</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>상자7</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -657,7 +657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -683,7 +683,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -838,7 +838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -870,14 +870,10 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>상자</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
           <t>일자 드라이버</t>
         </is>
       </c>
+      <c r="B4" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -944,7 +940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B6"/>
@@ -976,14 +972,10 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
           <t>연구노트</t>
         </is>
       </c>
+      <c r="B4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -998,11 +990,7 @@
           <t>USB</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>USB</t>
-        </is>
-      </c>
+      <c r="B6" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1043,13 +1031,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
     <col width="16.125" customWidth="1" style="5" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="5" min="2" max="2"/>
@@ -1057,34 +1045,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1094,27 +1082,27 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>어두운 곳에서 사용할 수 있을 것 같다</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1124,7 +1112,7 @@
           <t>카드키</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1134,15 +1122,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
@@ -1154,7 +1142,7 @@
           <t>만화책</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1169,7 +1157,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1179,45 +1167,45 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -1227,113 +1215,114 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>클립</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>구부러져 있는 클립이다</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>찢어진 종이</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>찢겨진 부분이 있는 종이다</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>연구실에서 발견한 노트이다</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>연구실에서 발견한 USB이다</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>건전지</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>유용하게 쓰일 것 같다</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>일자 드라이버</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>작은 일자 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>연료통</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>연료통을 들고 있다</t>
         </is>
       </c>
     </row>
+    <row r="19"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1453,7 +1442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1462,19 +1451,19 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1501,53 +1490,53 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>상자2</t>
         </is>
@@ -1559,21 +1548,21 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -657,7 +657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -683,7 +683,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -838,7 +838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -870,10 +870,14 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
+          <t>상자</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
           <t>일자 드라이버</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -940,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B6"/>
@@ -972,10 +976,14 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -990,7 +998,11 @@
           <t>USB</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1031,13 +1043,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col width="16.125" customWidth="1" style="5" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="5" min="2" max="2"/>
@@ -1045,291 +1057,876 @@
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>아이템 이름</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>고유 값</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>설명(안적어도됨)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>배고픔 회복량</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>지도</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>달 기지의 시설들을 볼 수 있다(우클릭으로 보기)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>손전등</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>어두운 곳에서 사용할 수 있을 것 같다</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>카드키이다 (우클릭으로 보기)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>배고픔 20 회복</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>만화책</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>지구에서 유행하는 만화모음집</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>길어보이는 전선이다</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>드라이버</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>작은 드라이버다</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>망치</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>조금 가벼운 것 같다</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>절연 테이프</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>많이 남아있는 것 같다</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>클립</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>구부러져 있는 클립이다</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>찢어진 종이</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>찢겨진 부분이 있는 종이다</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>연구노트</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>30</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>연구실에서 발견한 노트이다</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>연구실에서 발견한 USB이다</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>건전지</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>유용하게 쓰일 것 같다</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>일자 드라이버</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>작은 일자 드라이버다</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>연료통을 들고 있다</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet4">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>빛</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>마음</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet3">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>아이템 이름</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>고유 값</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>설명(안적어도됨)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>배고픔 회복량</t>
+          <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>지도</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>달 기지의 시설들을 볼 수 있다(우클릭으로 보기)</t>
+          <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>손전등</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>어두운 곳에서 사용할 수 있을 것 같다</t>
+          <t>침대</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>2</v>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>지도</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>카드키이다 (우클릭으로 보기)</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>배고픔 20 회복</t>
+          <t>상자</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>지구에서 유행하는 만화모음집</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>길어보이는 전선이다</t>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>침대</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>작은 드라이버다</t>
+          <t>서랍</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>망치</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>조금 가벼운 것 같다</t>
+          <t>책상</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>절연 테이프</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>많이 남아있는 것 같다</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>10</v>
+          <t>상자</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>만화책</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>클립</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>구부러져 있는 클립이다</t>
+          <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>찢어진 종이</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>찢겨진 부분이 있는 종이다</t>
+          <t>침대</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>연구노트</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>연구실에서 발견한 노트이다</t>
+          <t>서랍</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>USB</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>연구실에서 발견한 USB이다</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>20</v>
+          <t>책상</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>건전지</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>유용하게 쓰일 것 같다</t>
+          <t>상자</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>일자 드라이버</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>작은 일자 드라이버다</t>
+          <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>연료통</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>연료통을 들고 있다</t>
-        </is>
-      </c>
-    </row>
-    <row r="19"/>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+          <t>침대</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>망치</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>상자6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>손전등</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>상자7</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1352,11 +1949,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1381,589 +1977,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>빛</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>마음</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>지도</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>상자4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>망치</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>상자6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>손전등</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>상자7</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3300" yWindow="1665" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="9" activeTab="16" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6030" yWindow="2355" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="11" activeTab="15" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="a_security2" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="a_system" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lab" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="a_communication" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -886,7 +887,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -913,7 +914,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
@@ -968,6 +969,33 @@
       <c r="B6" s="1" t="inlineStr">
         <is>
           <t>USB</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
         </is>
       </c>
     </row>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6030" yWindow="2355" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="16" activeTab="22" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="c_communicate" sheetId="21" state="visible" r:id="rId21"/>
     <sheet name="c_warehouse" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="c_hall" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="car_room" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -40,7 +41,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="11">
     <font>
       <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
@@ -58,6 +59,58 @@
       <charset val="129"/>
       <family val="3"/>
       <sz val="8"/>
+    </font>
+    <font>
+      <name val="Malgun Gothic"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Malgun Gothic"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial Unicode MS"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial Unicode MS"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,12 +130,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -95,9 +149,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -657,10 +733,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -679,6 +755,36 @@
       <c r="C1" s="4" t="inlineStr">
         <is>
           <t>전선</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>드라이버</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>드라이버</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1152,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1400,6 +1506,667 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>상자6</t>
+        </is>
+      </c>
+      <c r="B7" s="12" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>1인우주선</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet4">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>빛</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>마음</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet3">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>침대</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>지도</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>침대</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>만화책</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>침대</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>침대</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>망치</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>상자6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>손전등</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>상자7</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1417,11 +2184,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1429,7 +2195,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1439,393 +2205,6 @@
       <c r="A1" s="4" t="inlineStr">
         <is>
           <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>빛</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>마음</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>상자4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>지도</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
         </is>
       </c>
     </row>
@@ -1833,148 +2212,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>상자4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>망치</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>상자6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>손전등</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>상자7</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -733,10 +733,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -757,36 +757,8 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
+      <c r="D1" s="4" t="n"/>
+      <c r="E1" s="4" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -735,8 +735,8 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1121,10 +1121,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A21" sqref="A19:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1412,6 +1412,14 @@
         </is>
       </c>
     </row>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+    </row>
+    <row r="22"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1702,7 +1710,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1727,29 +1735,9 @@
           <t>상자1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>책</t>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
         </is>
       </c>
     </row>
@@ -1764,6 +1752,11 @@
           <t>빵</t>
         </is>
       </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -733,10 +733,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -757,11 +757,25 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="D1" s="4" t="n"/>
-      <c r="E1" s="4" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -1121,13 +1135,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A21" sqref="A19:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
     <col width="16.125" customWidth="1" style="5" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="5" min="2" max="2"/>
@@ -1135,34 +1149,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1172,27 +1186,27 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>어두운 곳에서 사용할 수 있을 것 같다</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1202,7 +1216,7 @@
           <t>카드키</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1212,15 +1226,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
@@ -1232,7 +1246,7 @@
           <t>만화책</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1247,7 +1261,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1257,45 +1271,45 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -1305,108 +1319,108 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>클립</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>구부러져 있는 클립이다</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>찢어진 종이</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>찢겨진 부분이 있는 종이다</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>연구실에서 발견한 노트이다</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>연구실에서 발견한 USB이다</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>건전지</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>유용하게 쓰일 것 같다</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>일자 드라이버</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>작은 일자 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>연료통</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>연료통을 들고 있다</t>
         </is>
@@ -1419,7 +1433,6 @@
     <row r="21">
       <c r="A21" s="3" t="n"/>
     </row>
-    <row r="22"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1668,7 +1681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1677,19 +1690,19 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1707,7 +1720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -1716,21 +1729,21 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
@@ -1742,7 +1755,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>상자2</t>
         </is>
@@ -1759,21 +1772,21 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -2041,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -2066,14 +2079,10 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
           <t>드라이버</t>
         </is>
       </c>
+      <c r="B3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2085,14 +2094,10 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>상자4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
           <t>망치</t>
         </is>
       </c>
+      <c r="B5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -775,7 +775,7 @@
       <c r="S1" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -1135,13 +1135,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A21" sqref="A19:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col width="16.125" customWidth="1" style="5" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="5" min="2" max="2"/>
@@ -1149,34 +1149,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1186,27 +1186,27 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>어두운 곳에서 사용할 수 있을 것 같다</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
           <t>카드키</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1226,15 +1226,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
@@ -1246,7 +1246,7 @@
           <t>만화책</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1261,7 +1261,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1271,45 +1271,45 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" t="n">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" t="n">
         <v>50</v>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -1319,108 +1319,108 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>클립</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>구부러져 있는 클립이다</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>찢어진 종이</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>찢겨진 부분이 있는 종이다</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" t="n">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>연구실에서 발견한 노트이다</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>연구실에서 발견한 USB이다</t>
         </is>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>건전지</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>유용하게 쓰일 것 같다</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>일자 드라이버</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>작은 일자 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>연료통</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>연료통을 들고 있다</t>
         </is>
@@ -1433,6 +1433,7 @@
     <row r="21">
       <c r="A21" s="3" t="n"/>
     </row>
+    <row r="22"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1681,7 +1682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1690,6 +1691,129 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>빛</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>마음</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet3">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
@@ -1699,34 +1823,245 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>빛</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>마음</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>침대</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>지도</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>침대</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>만화책</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>침대</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>침대</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>책상</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1738,307 +2073,64 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>집중탐사</t>
+          <t>상자1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
+          <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>상자3</t>
+          <t>상자4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>망치</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>상자4</t>
+          <t>상자5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>지도</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
+          <t>상자6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>손전등</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
+          <t>상자7</t>
         </is>
       </c>
     </row>
@@ -2048,80 +2140,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>망치</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>상자6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>손전등</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>상자7</t>
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
         </is>
       </c>
     </row>
@@ -2129,57 +2191,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -733,10 +733,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -757,8 +757,22 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="D1" s="4" t="n"/>
-      <c r="E1" s="4" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1123,7 +1137,7 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A21" sqref="A19:C21"/>
     </sheetView>
   </sheetViews>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -735,7 +735,7 @@
   </sheetPr>
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1807,11 +1807,162 @@
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>지도</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>만화책</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1823,223 +1974,64 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>바닥</t>
+          <t>상자1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>침대</t>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>지도</t>
+          <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>책상</t>
+          <t>상자4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>망치</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>상자</t>
+          <t>상자5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>바닥</t>
+          <t>상자6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>손전등</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
+          <t>상자7</t>
         </is>
       </c>
     </row>
@@ -2049,88 +2041,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>상자4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>망치</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>상자6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>손전등</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>상자7</t>
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
         </is>
       </c>
     </row>
@@ -2138,57 +2092,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6030" yWindow="2355" windowWidth="21600" windowHeight="12000" tabRatio="600" firstSheet="2" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,6 +26,10 @@
     <sheet name="lab" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="a_communication" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="a_long" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="c_communicate" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="c_warehouse" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="c_hall" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="car_room" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="daf">items!$D$1:$D$10</definedName>
@@ -37,7 +41,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="11">
     <font>
       <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
@@ -55,6 +59,58 @@
       <charset val="129"/>
       <family val="3"/>
       <sz val="8"/>
+    </font>
+    <font>
+      <name val="Malgun Gothic"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Malgun Gothic"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial Unicode MS"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial Unicode MS"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,12 +130,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -92,9 +149,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -654,10 +733,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -678,9 +757,11 @@
           <t>전선</t>
         </is>
       </c>
+      <c r="D1" s="4" t="n"/>
+      <c r="E1" s="4" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -700,7 +781,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1040,13 +1121,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
     <col width="16.125" customWidth="1" style="5" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="5" min="2" max="2"/>
@@ -1054,34 +1135,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1091,27 +1172,27 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>어두운 곳에서 사용할 수 있을 것 같다</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1121,7 +1202,7 @@
           <t>카드키</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1131,15 +1212,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
@@ -1151,7 +1232,7 @@
           <t>만화책</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1166,7 +1247,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1176,45 +1257,45 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -1224,113 +1305,114 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>클립</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>구부러져 있는 클립이다</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>찢어진 종이</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>찢겨진 부분이 있는 종이다</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>연구실에서 발견한 노트이다</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>연구실에서 발견한 USB이다</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>건전지</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>유용하게 쓰일 것 같다</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>일자 드라이버</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>작은 일자 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>연료통</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>연료통을 들고 있다</t>
         </is>
       </c>
     </row>
+    <row r="19"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1364,13 +1446,222 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>상자6</t>
+        </is>
+      </c>
+      <c r="B7" s="12" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>1인우주선</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1379,19 +1670,19 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1409,7 +1700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1418,53 +1709,53 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>상자2</t>
         </is>
@@ -1476,21 +1767,21 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -1508,7 +1799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -1540,14 +1831,10 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
           <t>지도</t>
         </is>
       </c>
+      <c r="B4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1594,14 +1881,10 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>상자</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
           <t>만화책</t>
         </is>
       </c>
+      <c r="B11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -735,7 +735,7 @@
   </sheetPr>
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1807,11 +1807,162 @@
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>지도</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>만화책</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1823,223 +1974,64 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>바닥</t>
+          <t>상자1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>침대</t>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>지도</t>
+          <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>책상</t>
+          <t>상자4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>망치</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>상자</t>
+          <t>상자5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>바닥</t>
+          <t>상자6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>손전등</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
+          <t>상자7</t>
         </is>
       </c>
     </row>
@@ -2049,88 +2041,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>상자4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>망치</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>상자6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>손전등</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>상자7</t>
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
         </is>
       </c>
     </row>
@@ -2138,57 +2092,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -775,7 +775,7 @@
       <c r="S1" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -1135,13 +1135,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A21" sqref="A19:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
     <col width="16.125" customWidth="1" style="5" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="5" min="2" max="2"/>
@@ -1149,34 +1149,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1186,27 +1186,27 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>어두운 곳에서 사용할 수 있을 것 같다</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
           <t>카드키</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1226,15 +1226,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
@@ -1246,7 +1246,7 @@
           <t>만화책</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1261,7 +1261,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1271,45 +1271,45 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -1319,108 +1319,108 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>클립</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>구부러져 있는 클립이다</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>찢어진 종이</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>찢겨진 부분이 있는 종이다</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>연구실에서 발견한 노트이다</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>연구실에서 발견한 USB이다</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>건전지</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>유용하게 쓰일 것 같다</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>일자 드라이버</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>작은 일자 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>연료통</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>연료통을 들고 있다</t>
         </is>
@@ -1433,7 +1433,6 @@
     <row r="21">
       <c r="A21" s="3" t="n"/>
     </row>
-    <row r="22"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1682,7 +1681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1691,19 +1690,19 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1721,7 +1720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -1730,21 +1729,21 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
@@ -1756,7 +1755,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>상자2</t>
         </is>
@@ -1773,21 +1772,21 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -1805,7 +1804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1826,26 +1825,18 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
           <t>지도</t>
         </is>
       </c>
+      <c r="B3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
           <t>만화책</t>
         </is>
       </c>
+      <c r="B4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -1858,14 +1849,10 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
           <t>카드키</t>
         </is>
       </c>
+      <c r="B6" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n"/>
@@ -1956,7 +1943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -1981,14 +1968,10 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
           <t>드라이버</t>
         </is>
       </c>
+      <c r="B3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2000,14 +1983,10 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>상자4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
           <t>망치</t>
         </is>
       </c>
+      <c r="B5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -775,7 +775,7 @@
       <c r="S1" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -1135,13 +1135,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A21" sqref="A19:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col width="16.125" customWidth="1" style="5" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="5" min="2" max="2"/>
@@ -1149,34 +1149,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1186,27 +1186,27 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>어두운 곳에서 사용할 수 있을 것 같다</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
           <t>카드키</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1226,15 +1226,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
@@ -1246,7 +1246,7 @@
           <t>만화책</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1261,7 +1261,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1271,45 +1271,45 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" t="n">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" t="n">
         <v>50</v>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -1319,108 +1319,108 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>클립</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>구부러져 있는 클립이다</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>찢어진 종이</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>찢겨진 부분이 있는 종이다</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" t="n">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>연구실에서 발견한 노트이다</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>연구실에서 발견한 USB이다</t>
         </is>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>건전지</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>유용하게 쓰일 것 같다</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>일자 드라이버</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>작은 일자 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>연료통</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>연료통을 들고 있다</t>
         </is>
@@ -1433,6 +1433,7 @@
     <row r="21">
       <c r="A21" s="3" t="n"/>
     </row>
+    <row r="22"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1681,7 +1682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1690,6 +1691,280 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>빛</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>마음</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet3">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>지도</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>만화책</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
@@ -1699,235 +1974,64 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>빛</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>마음</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
+          <t>상자1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
+          <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>상자3</t>
+          <t>상자4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>망치</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>상자4</t>
+          <t>상자5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>지도</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
+          <t>상자6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>손전등</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>상자7</t>
         </is>
       </c>
     </row>
@@ -1937,80 +2041,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>망치</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>상자6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>손전등</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>상자7</t>
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
         </is>
       </c>
     </row>
@@ -2018,57 +2092,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="225" yWindow="1500" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -736,27 +736,15 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
+      <c r="A1" s="3" t="n"/>
+      <c r="B1" s="4" t="n"/>
+      <c r="C1" s="4" t="n"/>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
@@ -823,7 +811,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -930,10 +918,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -970,6 +958,16 @@
           <t>일자 드라이버</t>
         </is>
       </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1137,8 +1135,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A21" sqref="A19:C21"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1194,9 +1192,9 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>어두운 곳에서 사용할 수 있을 것 같다</t>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>어두운 곳에서 사용할 수 있을 것 같다( 장착가능 )</t>
         </is>
       </c>
     </row>
@@ -1805,10 +1803,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1834,6 +1832,11 @@
           <t>지도</t>
         </is>
       </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -1866,6 +1869,39 @@
           <t>카드키</t>
         </is>
       </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n"/>
@@ -1956,10 +1992,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -2027,6 +2063,11 @@
           <t>손전등</t>
         </is>
       </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2073,10 +2114,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -2087,6 +2128,7 @@
           <t>바닥</t>
         </is>
       </c>
+      <c r="B1" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="2655" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -735,8 +735,8 @@
   </sheetPr>
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -757,11 +757,25 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="D1" s="4" t="n"/>
-      <c r="E1" s="4" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -1121,13 +1135,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A21" sqref="A19:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col width="16.125" customWidth="1" style="5" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="5" min="2" max="2"/>
@@ -1135,291 +1149,899 @@
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>아이템 이름</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>고유 값</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>설명(안적어도됨)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>배고픔 회복량</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>지도</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>달 기지의 시설들을 볼 수 있다(우클릭으로 보기)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>손전등</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>어두운 곳에서 사용할 수 있을 것 같다</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>책</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>카드키이다 (우클릭으로 보기)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>배고픔 20 회복</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>만화책</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>지구에서 유행하는 만화모음집</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>길어보이는 전선이다</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>드라이버</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>작은 드라이버다</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>망치</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>조금 가벼운 것 같다</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>절연 테이프</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>많이 남아있는 것 같다</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>클립</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>구부러져 있는 클립이다</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>찢어진 종이</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>찢겨진 부분이 있는 종이다</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>연구노트</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>30</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>연구실에서 발견한 노트이다</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>연구실에서 발견한 USB이다</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>건전지</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>유용하게 쓰일 것 같다</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>일자 드라이버</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>작은 일자 드라이버다</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>연료통을 들고 있다</t>
+        </is>
+      </c>
+    </row>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+    </row>
+    <row r="22"/>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>상자6</t>
+        </is>
+      </c>
+      <c r="B7" s="12" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>1인우주선</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>상자</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>연료통</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet4">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>빛</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>마음</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet3">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>아이템 이름</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>고유 값</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>설명(안적어도됨)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>배고픔 회복량</t>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>지도</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>만화책</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>지도</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>달 기지의 시설들을 볼 수 있다(우클릭으로 보기)</t>
+          <t>상자1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>손전등</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>어두운 곳에서 사용할 수 있을 것 같다</t>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>2</v>
+          <t>상자3</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>카드키이다 (우클릭으로 보기)</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>망치</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>배고픔 20 회복</t>
+          <t>상자5</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>지구에서 유행하는 만화모음집</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>상자6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>손전등</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>길어보이는 전선이다</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>작은 드라이버다</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>망치</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>조금 가벼운 것 같다</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>절연 테이프</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>많이 남아있는 것 같다</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>클립</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>구부러져 있는 클립이다</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>찢어진 종이</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>찢겨진 부분이 있는 종이다</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>연구노트</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>연구실에서 발견한 노트이다</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>USB</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>연구실에서 발견한 USB이다</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>건전지</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>유용하게 쓰일 것 같다</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>일자 드라이버</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>작은 일자 드라이버다</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>연료통</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>연료통을 들고 있다</t>
-        </is>
-      </c>
-    </row>
-    <row r="19"/>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>상자7</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1442,11 +2064,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1471,710 +2092,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>연료통</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>연료통</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>연료통</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>상자4</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>연료통</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-      <c r="B6" s="12" t="inlineStr">
-        <is>
-          <t>연료통</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>상자6</t>
-        </is>
-      </c>
-      <c r="B7" s="12" t="inlineStr">
-        <is>
-          <t>연료통</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-      <c r="B2" s="9" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="10" t="inlineStr">
-        <is>
-          <t>1인우주선</t>
-        </is>
-      </c>
-      <c r="B3" s="9" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>연료통</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>빛</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>마음</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>책</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>지도</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>침대</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>책상</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>상자</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>상자4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>망치</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>상자6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>손전등</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>상자7</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -763,7 +763,7 @@
       <c r="S1" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -1133,7 +1133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -1147,34 +1147,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -1199,12 +1199,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
           <t>카드키</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1224,15 +1224,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
@@ -1244,7 +1244,7 @@
           <t>만화책</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1259,7 +1259,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1269,45 +1269,45 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -1317,108 +1317,108 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>클립</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>구부러져 있는 클립이다</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>찢어진 종이</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>찢겨진 부분이 있는 종이다</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>연구실에서 발견한 노트이다</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>연구실에서 발견한 USB이다</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>건전지</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>유용하게 쓰일 것 같다</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>일자 드라이버</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>작은 일자 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>연료통</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>연료통을 들고 있다</t>
         </is>
@@ -1431,7 +1431,6 @@
     <row r="21">
       <c r="A21" s="3" t="n"/>
     </row>
-    <row r="22"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1680,7 +1679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1689,19 +1688,19 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1719,7 +1718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -1728,21 +1727,21 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
@@ -1754,7 +1753,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>상자2</t>
         </is>
@@ -1771,21 +1770,21 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -1803,7 +1802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -1861,19 +1860,15 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>서랍</t>
+          <t>카드키</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>카드키</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
           <t>빵</t>
         </is>
       </c>
+      <c r="C6" s="4" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -763,7 +763,7 @@
       <c r="S1" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -1034,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B6"/>
@@ -1088,11 +1088,7 @@
           <t>USB</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>USB</t>
-        </is>
-      </c>
+      <c r="B6" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1133,7 +1129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -1147,34 +1143,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1184,12 +1180,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -1199,12 +1195,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1214,7 +1210,7 @@
           <t>카드키</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1224,15 +1220,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
@@ -1244,7 +1240,7 @@
           <t>만화책</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1259,7 +1255,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1269,45 +1265,45 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -1317,108 +1313,108 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>클립</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>구부러져 있는 클립이다</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>찢어진 종이</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>찢겨진 부분이 있는 종이다</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>연구실에서 발견한 노트이다</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>연구실에서 발견한 USB이다</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>건전지</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>유용하게 쓰일 것 같다</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>일자 드라이버</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>작은 일자 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>연료통</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>연료통을 들고 있다</t>
         </is>
@@ -1431,7 +1427,6 @@
     <row r="21">
       <c r="A21" s="3" t="n"/>
     </row>
-    <row r="22"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1680,7 +1675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1689,19 +1684,19 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1719,7 +1714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -1728,21 +1723,21 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
@@ -1754,7 +1749,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>상자2</t>
         </is>
@@ -1771,21 +1766,21 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="225" yWindow="1500" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="225" yWindow="1500" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -763,7 +763,7 @@
       <c r="S1" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -1034,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B6"/>
@@ -1088,7 +1088,11 @@
           <t>USB</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1129,10 +1133,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1143,34 +1147,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1180,12 +1184,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="n">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -1195,12 +1199,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1210,7 +1214,7 @@
           <t>카드키</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1220,15 +1224,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
@@ -1240,12 +1244,12 @@
           <t>만화책</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>지구에서 유행하는 만화모음집</t>
+          <t>지구에서 유행하는 만화모음집( 우클릭으로 보기 )</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1259,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1265,45 +1269,45 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" t="n">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" t="n">
         <v>50</v>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -1313,108 +1317,108 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>클립</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>구부러져 있는 클립이다</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>찢어진 종이</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>찢겨진 부분이 있는 종이다</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" t="n">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>연구실에서 발견한 노트이다</t>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>연구실에서 발견한 노트이다( 우클릭으로 보기 )</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>연구실에서 발견한 USB이다</t>
         </is>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>건전지</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>유용하게 쓰일 것 같다</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>일자 드라이버</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>작은 일자 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>연료통</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>연료통을 들고 있다</t>
         </is>
@@ -1427,6 +1431,7 @@
     <row r="21">
       <c r="A21" s="3" t="n"/>
     </row>
+    <row r="22"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1675,7 +1680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1684,6 +1689,318 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>빛</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>마음</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet3">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>지도</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>만화책</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
@@ -1693,285 +2010,69 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>빛</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>마음</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
+          <t>상자1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
+          <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>상자3</t>
+          <t>상자4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>망치</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>상자4</t>
+          <t>상자5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>지도</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+          <t>상자6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>손전등</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>빵</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
+          <t>상자7</t>
         </is>
       </c>
     </row>
@@ -1981,152 +2082,56 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>상자4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>망치</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>상자6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>손전등</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>상자7</t>
-        </is>
-      </c>
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -763,7 +763,7 @@
       <c r="S1" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -918,7 +918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -955,19 +955,11 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>일자 드라이버</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1034,7 +1026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B6"/>
@@ -1088,11 +1080,7 @@
           <t>USB</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>USB</t>
-        </is>
-      </c>
+      <c r="B6" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1133,13 +1121,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
     <col width="16.125" customWidth="1" style="5" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="5" min="2" max="2"/>
@@ -1147,34 +1135,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1184,12 +1172,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -1199,12 +1187,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1214,7 +1202,7 @@
           <t>카드키</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1224,15 +1212,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
@@ -1244,12 +1232,12 @@
           <t>만화책</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>지구에서 유행하는 만화모음집( 우클릭으로 보기 )</t>
+          <t>지구에서 유행하는 개그모음집( 우클릭으로 보기 )</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1247,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1269,45 +1257,45 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -1317,42 +1305,42 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>클립</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>구부러져 있는 클립이다</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>찢어진 종이</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>찢겨진 부분이 있는 종이다</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
         <v>30</v>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1362,63 +1350,63 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>연구실에서 발견한 USB이다</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>건전지</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>유용하게 쓰일 것 같다</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>일자 드라이버</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>작은 일자 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>연료통</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>연료통을 들고 있다</t>
         </is>
@@ -1431,7 +1419,6 @@
     <row r="21">
       <c r="A21" s="3" t="n"/>
     </row>
-    <row r="22"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1498,7 +1485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -1517,14 +1504,10 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
           <t>연료통</t>
         </is>
       </c>
+      <c r="B2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -1680,7 +1663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1689,19 +1672,19 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1719,7 +1702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -1728,64 +1711,52 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
+      <c r="B3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -1803,7 +1774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -1824,31 +1795,19 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>지도</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
           <t>빵</t>
         </is>
       </c>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
           <t>만화책</t>
         </is>
       </c>
+      <c r="B4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -1861,19 +1820,11 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
           <t>빵</t>
         </is>
       </c>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="4" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -1931,7 +1882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -1956,29 +1907,13 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1992,7 +1927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -2036,14 +1971,10 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>상자4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
           <t>망치</t>
         </is>
       </c>
+      <c r="B5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2055,19 +1986,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>상자6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>손전등</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
           <t>빵</t>
         </is>
       </c>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="4" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -763,7 +763,7 @@
       <c r="S1" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -918,7 +918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -955,11 +955,19 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
+          <t>일자 드라이버</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="4" t="n"/>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1026,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B6"/>
@@ -1080,7 +1088,11 @@
           <t>USB</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1121,13 +1133,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col width="16.125" customWidth="1" style="5" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="5" min="2" max="2"/>
@@ -1135,34 +1147,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1172,12 +1184,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="n">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -1187,12 +1199,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1202,7 +1214,7 @@
           <t>카드키</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1212,15 +1224,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
@@ -1232,7 +1244,7 @@
           <t>만화책</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1247,7 +1259,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1257,45 +1269,45 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" t="n">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" t="n">
         <v>50</v>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -1305,42 +1317,42 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>클립</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>구부러져 있는 클립이다</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>찢어진 종이</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>찢겨진 부분이 있는 종이다</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" t="n">
         <v>30</v>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1350,63 +1362,63 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>연구실에서 발견한 USB이다</t>
         </is>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>건전지</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>유용하게 쓰일 것 같다</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>일자 드라이버</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>작은 일자 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>연료통</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>연료통을 들고 있다</t>
         </is>
@@ -1419,6 +1431,7 @@
     <row r="21">
       <c r="A21" s="3" t="n"/>
     </row>
+    <row r="22"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1485,7 +1498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -1504,10 +1517,14 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
           <t>연료통</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -1663,7 +1680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1672,6 +1689,318 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>빛</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>마음</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet3">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>지도</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>만화책</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
@@ -1681,239 +2010,71 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>빛</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>마음</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
+          <t>상자1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n"/>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n"/>
+          <t>상자3</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>상자3</t>
+          <t>상자4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>망치</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>상자4</t>
+          <t>상자5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+          <t>상자6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>손전등</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>빵</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="4" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="4" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="4" t="n"/>
+          <t>상자7</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1921,140 +2082,56 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>망치</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="4" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>상자7</t>
-        </is>
-      </c>
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="225" yWindow="1500" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="225" yWindow="1500" windowWidth="21600" windowHeight="11985" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -763,7 +763,7 @@
       <c r="S1" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -918,7 +918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -950,24 +950,12 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>상자</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>일자 드라이버</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1133,13 +1121,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
     <col width="16.125" customWidth="1" style="5" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="5" min="2" max="2"/>
@@ -1147,34 +1135,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1184,12 +1172,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -1199,12 +1187,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1214,7 +1202,7 @@
           <t>카드키</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1224,15 +1212,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
@@ -1241,15 +1229,15 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>만화책</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+          <t>일기장</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>지구에서 유행하는 개그모음집( 우클릭으로 보기 )</t>
+          <t>누군가의 일기장( 우클릭으로 보기 )</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1247,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1269,45 +1257,45 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -1317,42 +1305,42 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>클립</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>구부러져 있는 클립이다</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>찢어진 종이</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>찢겨진 부분이 있는 종이다</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
         <v>30</v>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1362,63 +1350,63 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>연구실에서 발견한 USB이다</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>건전지</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>유용하게 쓰일 것 같다</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>일자 드라이버</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>작은 일자 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>연료통</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>연료통을 들고 있다</t>
         </is>
@@ -1431,7 +1419,6 @@
     <row r="21">
       <c r="A21" s="3" t="n"/>
     </row>
-    <row r="22"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1680,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1689,19 +1676,19 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1719,7 +1706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -1728,64 +1715,52 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
+      <c r="B3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>
@@ -1803,10 +1778,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+  <dimension ref="A1:S26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1824,31 +1799,19 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>지도</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
           <t>빵</t>
         </is>
       </c>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
+          <t>일기장</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -1861,19 +1824,11 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
           <t>빵</t>
         </is>
       </c>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="4" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -1931,7 +1886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -1945,6 +1900,11 @@
           <t>바닥</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>망치</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
@@ -1956,29 +1916,13 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1992,7 +1936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -2017,14 +1961,10 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
           <t>드라이버</t>
         </is>
       </c>
+      <c r="B3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2036,14 +1976,10 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>상자4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
           <t>망치</t>
         </is>
       </c>
+      <c r="B5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2055,19 +1991,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>상자6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>손전등</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
           <t>빵</t>
         </is>
       </c>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="4" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -763,7 +763,7 @@
       <c r="S1" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -1133,10 +1133,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1147,34 +1147,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="n">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -1199,12 +1199,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
           <t>카드키</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1224,15 +1224,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
@@ -1241,15 +1241,15 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>만화책</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
+          <t>일기장</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>지구에서 유행하는 만화모음집</t>
+          <t>누군가의 일기장( 우클릭으로 보기 )</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1269,45 +1269,45 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" t="n">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" t="n">
         <v>50</v>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -1317,108 +1317,108 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>클립</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>구부러져 있는 클립이다</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>찢어진 종이</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>찢겨진 부분이 있는 종이다</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" t="n">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>연구실에서 발견한 노트이다</t>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>연구실에서 발견한 노트이다( 우클릭으로 보기 )</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>연구실에서 발견한 USB이다</t>
         </is>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>건전지</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>유용하게 쓰일 것 같다</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>일자 드라이버</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>작은 일자 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>연료통</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>연료통을 들고 있다</t>
         </is>
@@ -1431,6 +1431,7 @@
     <row r="21">
       <c r="A21" s="3" t="n"/>
     </row>
+    <row r="22"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1679,7 +1680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1688,6 +1689,318 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>빛</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>마음</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet3">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>지도</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>일기장</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
@@ -1697,281 +2010,69 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>빛</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>마음</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
+          <t>상자1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
+          <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>상자3</t>
+          <t>상자4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>망치</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>상자4</t>
+          <t>상자5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>지도</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+          <t>상자6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>손전등</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>빵</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>만화책</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
+          <t>상자7</t>
         </is>
       </c>
     </row>
@@ -1981,152 +2082,56 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>상자4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>망치</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>상자6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>손전등</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>상자7</t>
-        </is>
-      </c>
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -763,7 +763,7 @@
       <c r="S1" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -918,7 +918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -950,12 +950,24 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
+          <t>상자</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>일자 드라이버</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n"/>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="4" t="n"/>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1121,13 +1133,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col width="16.125" customWidth="1" style="5" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="5" min="2" max="2"/>
@@ -1135,34 +1147,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1172,12 +1184,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="n">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -1187,12 +1199,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1202,7 +1214,7 @@
           <t>카드키</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1212,15 +1224,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
@@ -1232,7 +1244,7 @@
           <t>일기장</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1247,7 +1259,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1257,45 +1269,45 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" t="n">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" t="n">
         <v>50</v>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -1305,42 +1317,42 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>클립</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>구부러져 있는 클립이다</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>찢어진 종이</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>찢겨진 부분이 있는 종이다</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" t="n">
         <v>30</v>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1350,63 +1362,63 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>연구실에서 발견한 USB이다</t>
         </is>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>건전지</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>유용하게 쓰일 것 같다</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>일자 드라이버</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>작은 일자 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>연료통</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>연료통을 들고 있다</t>
         </is>
@@ -1419,6 +1431,7 @@
     <row r="21">
       <c r="A21" s="3" t="n"/>
     </row>
+    <row r="22"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1667,7 +1680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1676,6 +1689,318 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>빛</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>마음</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet3">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>지도</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>일기장</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
@@ -1685,244 +2010,71 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>빛</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>마음</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
+          <t>상자1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n"/>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n"/>
+          <t>상자3</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>상자3</t>
+          <t>상자4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>망치</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>상자4</t>
+          <t>상자5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+          <t>상자6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>손전등</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>빵</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="4" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>일기장</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="4" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>망치</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="4" t="n"/>
+          <t>상자7</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1930,136 +2082,56 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>망치</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="4" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>상자7</t>
-        </is>
-      </c>
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
 </file>
--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -763,7 +763,7 @@
       <c r="S1" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -918,7 +918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -950,24 +950,16 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>상자</t>
+          <t>빵</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>일자 드라이버</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1034,7 +1026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B6"/>
@@ -1066,14 +1058,10 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
           <t>연구노트</t>
         </is>
       </c>
+      <c r="B4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1133,13 +1121,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
     <col width="16.125" customWidth="1" style="5" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="5" min="2" max="2"/>
@@ -1147,34 +1135,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1184,12 +1172,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -1199,12 +1187,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1214,7 +1202,7 @@
           <t>카드키</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1224,15 +1212,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
@@ -1244,7 +1232,7 @@
           <t>일기장</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1259,7 +1247,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1269,45 +1257,45 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -1317,42 +1305,42 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>클립</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>구부러져 있는 클립이다</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>찢어진 종이</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>찢겨진 부분이 있는 종이다</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
         <v>30</v>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1362,63 +1350,63 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>연구실에서 발견한 USB이다</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>건전지</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>유용하게 쓰일 것 같다</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>일자 드라이버</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>작은 일자 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>연료통</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>연료통을 들고 있다</t>
         </is>
@@ -1431,7 +1419,6 @@
     <row r="21">
       <c r="A21" s="3" t="n"/>
     </row>
-    <row r="22"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1680,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1689,19 +1676,19 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>빛</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>마음</t>
         </is>
@@ -1719,7 +1706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -1728,21 +1715,21 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>집중탐사</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>상자1</t>
         </is>
@@ -1754,7 +1741,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>상자2</t>
         </is>
@@ -1771,21 +1758,21 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>상자4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>상자5</t>
         </is>

--- a/Demo/item.xlsx
+++ b/Demo/item.xlsx
@@ -763,7 +763,7 @@
       <c r="S1" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1번째 가로줄은 현재 소지중인 아이템을 의미(처음에 가지고 시작하는 아이템 목록)</t>
         </is>
@@ -918,7 +918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -950,16 +950,24 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
+          <t>상자</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>일자 드라이버</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1026,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B6"/>
@@ -1058,10 +1066,14 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1121,13 +1133,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col width="16.125" customWidth="1" style="5" min="1" max="1"/>
     <col width="7.625" customWidth="1" style="5" min="2" max="2"/>
@@ -1135,34 +1147,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>아이템 이름</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>고유 값</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>설명(안적어도됨)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>배고픔 회복량</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>지도</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -1172,12 +1184,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>손전등</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" t="n">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -1187,12 +1199,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>책</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1202,7 +1214,7 @@
           <t>카드키</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1212,15 +1224,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>빵</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>배고픔 20 회복</t>
         </is>
@@ -1232,7 +1244,7 @@
           <t>일기장</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1247,7 +1259,7 @@
           <t>전선</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1257,45 +1269,45 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>드라이버</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" t="n">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>작은 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>망치</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" t="n">
         <v>50</v>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>조금 가벼운 것 같다</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>절연 테이프</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>많이 남아있는 것 같다</t>
         </is>
@@ -1305,42 +1317,42 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>클립</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>구부러져 있는 클립이다</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>찢어진 종이</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>찢겨진 부분이 있는 종이다</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>연구노트</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" t="n">
         <v>30</v>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1350,63 +1362,63 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>연구실에서 발견한 USB이다</t>
         </is>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>건전지</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>유용하게 쓰일 것 같다</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>일자 드라이버</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>작은 일자 드라이버다</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>연료통</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>연료통을 들고 있다</t>
         </is>
@@ -1419,6 +1431,7 @@
     <row r="21">
       <c r="A21" s="3" t="n"/>
     </row>
+    <row r="22"/>
   </sheetData>
   <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1667,7 +1680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
@@ -1676,6 +1689,318 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>빛</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>마음</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet3">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>상자3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>상자4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>상자5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet5">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>지도</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>일기장</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>서랍</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>카드키</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>집중탐사</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>상자1</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>전선</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>빵</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>바닥</t>
@@ -1685,285 +2010,69 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>빛</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>마음</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
+          <t>상자1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
+          <t>상자2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>드라이버</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>빵</t>
+          <t>상자3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>상자3</t>
+          <t>상자4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>망치</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>상자4</t>
+          <t>상자5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.6997222304344177" right="0.6997222304344177" top="0.75" bottom="0.75" header="0.300000011920929" footer="0.300000011920929"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>지도</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+          <t>상자6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>손전등</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>빵</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>일기장</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>서랍</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>카드키</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>가로 1 = 복도, 가로 2 ~ 6 = a방, 가로  7~ 11= b방, 가로 11~16 = c방, 가로 17~21= d방</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7480555772781372" right="0.7480555772781372" top="0.9843055605888367" bottom="0.9843055605888367" header="0.5115277767181396" footer="0.5115277767181396"/>
-  <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>집중탐사</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>전선</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
+          <t>상자7</t>
         </is>
       </c>
     </row>
@@ -1973,152 +2082,56 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>상자1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>상자2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>드라이버</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>상자3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>상자4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>망치</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>상자5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>상자6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>손전등</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>빵</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>상자7</t>
-        </is>
-      </c>
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>바닥</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
 </file>